--- a/perhitungan/data skripsi 2014_1.xlsx
+++ b/perhitungan/data skripsi 2014_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\PHP\des\perhitungan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -284,6 +284,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2678,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,7 +3140,7 @@
         <v>553.68000000000029</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="5"/>
+        <f>N8^2</f>
         <v>123137.82810000022</v>
       </c>
       <c r="Q8" s="5">
@@ -3219,7 +3221,7 @@
         <v>743.45400000000063</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P9:P29" si="14">N9^2</f>
         <v>516742.44710399996</v>
       </c>
       <c r="Q9" s="5">
@@ -3301,7 +3303,7 @@
         <v>588.59640000000127</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>567429.70380848949</v>
       </c>
       <c r="Q10" s="5">
@@ -3383,7 +3385,7 @@
         <v>527.7457800000011</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>841890.40520313988</v>
       </c>
       <c r="Q11" s="5">
@@ -3467,7 +3469,7 @@
         <v>372.01932000000033</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>838664.57474127889</v>
       </c>
       <c r="Q12" s="5">
@@ -3551,7 +3553,7 @@
         <v>81.24069419999887</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>651706.19793939439</v>
       </c>
       <c r="Q13" s="5">
@@ -3635,7 +3637,7 @@
         <v>-148.98239964000095</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>524194.65267929417</v>
       </c>
       <c r="Q14" s="5">
@@ -3719,7 +3721,7 @@
         <v>-87.823281654001221</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>659853.67441927036</v>
       </c>
       <c r="Q15" s="5">
@@ -3803,7 +3805,7 @@
         <v>537.33383673119897</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>924625.26302509382</v>
       </c>
       <c r="Q16" s="5">
@@ -3887,7 +3889,7 @@
         <v>771.3077642558992</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>943325.97964286292</v>
       </c>
       <c r="Q17" s="5">
@@ -3912,106 +3914,110 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <v>5882</v>
+      </c>
       <c r="C18" s="4">
         <f>SUM(C6:C17)</f>
         <v>78292</v>
       </c>
-      <c r="D18" s="2">
-        <f>$H$2*B17+(1-$H$2)*D17</f>
+      <c r="D18" s="4">
+        <f t="shared" si="13"/>
         <v>5153.605072159191</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
-        <f>$H$2*D18+(1-$H$2)*F17</f>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <f t="shared" si="8"/>
         <v>4174.2408494247902</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <f t="shared" si="0"/>
         <v>6132.9692948935917</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="4">
         <f t="shared" si="2"/>
         <v>108.81824697048899</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18">
+      <c r="K18" s="4"/>
+      <c r="L18" s="17">
         <f t="shared" si="10"/>
         <v>6241.7875418640806</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
         <f t="shared" si="12"/>
         <v>979.36422273440076</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="5">
-        <f t="shared" si="5"/>
+      <c r="P18" s="4">
+        <f t="shared" si="14"/>
         <v>959154.2807721569</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <f>SUM(Q6:Q17)</f>
         <v>2542797.1512648086</v>
       </c>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>7101</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
         <f t="shared" si="13"/>
-        <v>4638.2445649432721</v>
+        <v>5226.4445649432719</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
         <f t="shared" si="8"/>
-        <v>4220.6412209766386</v>
+        <v>4279.4612209766383</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
-        <v>5055.8479089099055</v>
+        <v>6173.4279089099055</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>46.400371551848167</v>
+        <v>105.22037155184819</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19">
+      <c r="L19" s="15">
         <f t="shared" si="10"/>
-        <v>5102.2482804617539</v>
+        <v>6278.6482804617535</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5">
         <f t="shared" si="12"/>
-        <v>417.60334396663347</v>
+        <v>946.98334396663358</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="5"/>
-        <v>174392.55289211439</v>
+        <f t="shared" si="14"/>
+        <v>896777.45375022746</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" t="s">
@@ -4041,35 +4047,38 @@
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="B20">
+        <v>8132</v>
+      </c>
       <c r="D20" s="2">
         <f t="shared" si="13"/>
-        <v>4174.420108448945</v>
+        <v>5413.9001084489455</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="8"/>
-        <v>4216.0191097238694</v>
+        <v>4392.9051097238689</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
-        <v>4132.8211071740207</v>
+        <v>6434.8951071740221</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>-4.6221112527693755</v>
+        <v>113.44388874723074</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20">
+      <c r="L20" s="15">
         <f t="shared" si="10"/>
-        <v>4128.1989959212515</v>
+        <v>6548.3389959212527</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5">
         <f t="shared" si="12"/>
-        <v>-41.599001274924376</v>
+        <v>1020.9949987250766</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="5"/>
-        <v>1730.4769070711598</v>
+        <f t="shared" si="14"/>
+        <v>1042430.7874216192</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5" t="s">
@@ -4099,35 +4108,38 @@
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="B21">
+        <v>4883</v>
+      </c>
       <c r="D21" s="2">
         <f t="shared" si="13"/>
-        <v>3756.9780976040506</v>
+        <v>5685.710097604051</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="8"/>
-        <v>4170.1150085118879</v>
+        <v>4522.185608511887</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
-        <v>3343.8411866962133</v>
+        <v>6849.234586696215</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>-45.904101211981924</v>
+        <v>129.28049878801824</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21">
+      <c r="L21" s="15">
         <f t="shared" si="10"/>
-        <v>3297.9370854842314</v>
+        <v>6978.5150854842332</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5">
         <f t="shared" si="12"/>
-        <v>-413.13691090783732</v>
+        <v>1163.524489092164</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="5"/>
-        <v>170682.10715447032</v>
+        <f t="shared" si="14"/>
+        <v>1353789.2367171813</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="T21" s="5"/>
@@ -4150,35 +4162,38 @@
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="B22">
+        <v>5030</v>
+      </c>
       <c r="D22" s="2">
         <f t="shared" si="13"/>
-        <v>3381.2802878436455</v>
+        <v>5605.4390878436461</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="8"/>
-        <v>4091.2315364450637</v>
+        <v>4630.5109564450631</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="0"/>
-        <v>2671.3290392422273</v>
+        <v>6580.3672192422291</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>-78.883472066824254</v>
+        <v>108.32534793317589</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22">
+      <c r="L22" s="15">
         <f t="shared" si="10"/>
-        <v>2592.4455671754031</v>
+        <v>6688.6925671754052</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5">
         <f t="shared" si="12"/>
-        <v>-709.95124860141823</v>
+        <v>974.92813139858299</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="5"/>
-        <v>504030.77539071278</v>
+        <f t="shared" si="14"/>
+        <v>950484.86139233271</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -4203,35 +4218,38 @@
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B23">
+        <v>5622</v>
+      </c>
       <c r="D23" s="2">
         <f t="shared" si="13"/>
-        <v>3043.1522590592808</v>
+        <v>5547.8951790592819</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="8"/>
-        <v>3986.4236087064855</v>
+        <v>4722.249378706485</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="0"/>
-        <v>2099.8809094120761</v>
+        <v>6373.5409794120787</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>-104.80792773857831</v>
+        <v>91.738422261421874</v>
       </c>
       <c r="K23" s="5"/>
-      <c r="L23">
+      <c r="L23" s="15">
         <f t="shared" si="10"/>
-        <v>1995.0729816734979</v>
+        <v>6465.2794016735006</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="12"/>
-        <v>-943.27134964720472</v>
+        <v>825.64580035279687</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5">
-        <f t="shared" si="5"/>
-        <v>889760.83906525909</v>
+        <f t="shared" si="14"/>
+        <v>681690.98764021054</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -4256,36 +4274,39 @@
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B24">
+        <v>3908</v>
+      </c>
       <c r="D24" s="2">
         <f t="shared" si="13"/>
-        <v>2738.8370331533529</v>
+        <v>5555.3056611533539</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="8"/>
-        <v>3861.6649511511723</v>
+        <v>4805.5550069511719</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="0"/>
-        <v>1616.0091151555334</v>
+        <v>6305.0563153555358</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>-124.75865755531328</v>
+        <v>83.305628244686886</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24">
+      <c r="L24" s="15">
         <f t="shared" si="10"/>
-        <v>1491.2504576002202</v>
+        <v>6388.3619436002227</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5">
         <f t="shared" si="12"/>
-        <v>-1122.8279179978194</v>
+        <v>749.75065420218198</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5">
-        <f t="shared" si="5"/>
-        <v>1260742.5334353179</v>
+        <f t="shared" si="14"/>
+        <v>562126.04347659985</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -4310,36 +4331,39 @@
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="B25">
+        <v>2878</v>
+      </c>
       <c r="D25" s="2">
         <f t="shared" si="13"/>
-        <v>2464.9533298380175</v>
+        <v>5390.5750950380188</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="8"/>
-        <v>3721.9937890198571</v>
+        <v>4864.0570157598568</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="0"/>
-        <v>1207.9128706561778</v>
+        <v>5917.0931743161809</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>-139.67116213131553</v>
+        <v>58.502008808684678</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25">
+      <c r="L25" s="15">
         <f t="shared" si="10"/>
-        <v>1068.2417085248624</v>
+        <v>5975.5951831248658</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5">
         <f t="shared" si="12"/>
-        <v>-1257.0404591818397</v>
+        <v>526.51807927816208</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5">
-        <f t="shared" si="5"/>
-        <v>1580150.7160200903</v>
+        <f t="shared" si="14"/>
+        <v>277221.28780676494</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -4364,36 +4388,39 @@
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B26">
+        <v>3794</v>
+      </c>
       <c r="D26" s="2">
         <f t="shared" si="13"/>
-        <v>2218.4579968542157</v>
+        <v>5139.317585534217</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="8"/>
-        <v>3571.6402098032931</v>
+        <v>4891.5830727372932</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="0"/>
-        <v>865.27578390513827</v>
+        <v>5387.0520983311408</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>-150.35357921656416</v>
+        <v>27.526056977435982</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26">
+      <c r="L26" s="15">
         <f t="shared" si="10"/>
-        <v>714.92220468857408</v>
+        <v>5414.5781553085772</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5">
         <f t="shared" si="12"/>
-        <v>-1353.1822129490774</v>
+        <v>247.73451279692381</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5">
-        <f t="shared" si="5"/>
-        <v>1831102.1014417624</v>
+        <f t="shared" si="14"/>
+        <v>61372.388830729207</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -4418,36 +4445,39 @@
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B27">
+        <v>4956</v>
+      </c>
       <c r="D27" s="2">
         <f t="shared" si="13"/>
-        <v>1996.6121971687942</v>
+        <v>5004.7858269807948</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="8"/>
-        <v>3414.1374085398434</v>
+        <v>4902.9033481616434</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="0"/>
-        <v>579.086985797745</v>
+        <v>5106.6683057999462</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>-157.50280126344992</v>
+        <v>11.320275424350157</v>
       </c>
       <c r="K27" s="5"/>
-      <c r="L27">
+      <c r="L27" s="15">
         <f t="shared" si="10"/>
-        <v>421.5841845342951</v>
+        <v>5117.9885812242965</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5">
         <f t="shared" si="12"/>
-        <v>-1417.5252113710492</v>
+        <v>101.8824788191514</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5">
-        <f t="shared" si="5"/>
-        <v>2009377.7248725377</v>
+        <f t="shared" si="14"/>
+        <v>10380.039490334833</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -4472,36 +4502,39 @@
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B28">
+        <v>6197</v>
+      </c>
       <c r="D28" s="2">
         <f t="shared" si="13"/>
-        <v>1796.9509774519147</v>
+        <v>4999.9072442827155</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="8"/>
-        <v>3252.4187654310508</v>
+        <v>4912.6037377737503</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="0"/>
-        <v>341.48318947277858</v>
+        <v>5087.2107507916808</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="2"/>
-        <v>-161.71864310879292</v>
+        <v>9.7003896121072515</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28">
+      <c r="L28" s="15">
         <f t="shared" si="10"/>
-        <v>179.76454636398566</v>
+        <v>5096.9111404037876</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5">
         <f t="shared" si="12"/>
-        <v>-1455.4677879791361</v>
+        <v>87.303506508965256</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5">
-        <f t="shared" si="5"/>
-        <v>2118386.4818448797</v>
+        <f t="shared" si="14"/>
+        <v>7621.9022487609391</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -4526,36 +4559,39 @@
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B29">
+        <v>4244</v>
+      </c>
       <c r="D29" s="2">
         <f t="shared" si="13"/>
-        <v>1617.2558797067234</v>
+        <v>5119.616519854444</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="8"/>
-        <v>3088.9024768586182</v>
+        <v>4933.3050159818195</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="0"/>
-        <v>145.6092825548285</v>
+        <v>5305.9280237270686</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="2"/>
-        <v>-163.51628857243279</v>
+        <v>20.7012782080694</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29">
+      <c r="L29" s="15">
         <f t="shared" si="10"/>
-        <v>-17.907006017604289</v>
+        <v>5326.6293019351378</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5">
         <f t="shared" si="12"/>
-        <v>-1471.6465971518949</v>
+        <v>186.3115038726246</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5">
-        <f t="shared" si="5"/>
-        <v>2165743.7069087517</v>
+        <f t="shared" si="14"/>
+        <v>34711.976475279014</v>
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
